--- a/DemoTestData.xlsx
+++ b/DemoTestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sebastian/Desktop/EclipseWorkSpace/PageObjectsTest/DemoWebShop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CDE48D-6212-CB45-B7D7-C3A7B8A2CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE473F-8095-3C41-AC19-CBBF70FEAAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CBD544E2-151C-AB40-BE1A-C8F6CC32F855}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{CBD544E2-151C-AB40-BE1A-C8F6CC32F855}"/>
   </bookViews>
   <sheets>
     <sheet name="UserDetails" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>FirstName</t>
   </si>
@@ -80,22 +80,104 @@
     <t>virat</t>
   </si>
   <si>
-    <t>kholivirat21@puma18.com</t>
-  </si>
-  <si>
     <t>yuvaraj</t>
   </si>
   <si>
     <t>singh</t>
   </si>
   <si>
-    <t>yuvi12@six6.com</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>kholivirat22@puma18.com</t>
+  </si>
+  <si>
+    <t>yuvi122@six6.com</t>
+  </si>
+  <si>
+    <t>tonybruce11@test34.com</t>
+  </si>
+  <si>
+    <t>tonybruce14@test34.com</t>
+  </si>
+  <si>
+    <t>tonybruce15@test34.com</t>
+  </si>
+  <si>
+    <t>MSD14@test45.com</t>
+  </si>
+  <si>
+    <t>kholivirat23@puma18.com</t>
+  </si>
+  <si>
+    <t>yuvi1223@six6.com</t>
+  </si>
+  <si>
+    <t>tonybruce16@test34.com</t>
+  </si>
+  <si>
+    <t>MSD15@test45.com</t>
+  </si>
+  <si>
+    <t>kholivirat24@puma18.com</t>
+  </si>
+  <si>
+    <t>yuvi1224@six6.com</t>
+  </si>
+  <si>
+    <t>tonybruce17@test34.com</t>
+  </si>
+  <si>
+    <t>MSD16@test45.com</t>
+  </si>
+  <si>
+    <t>kholivirat25@puma18.com</t>
+  </si>
+  <si>
+    <t>yuvi1226@six6.com</t>
+  </si>
+  <si>
+    <t>tonybruce18@test34.com</t>
+  </si>
+  <si>
+    <t>MSD17@test45.com</t>
+  </si>
+  <si>
+    <t>kholivirat26@puma18.com</t>
+  </si>
+  <si>
+    <t>yuvi1626@six6.com</t>
+  </si>
+  <si>
+    <t>tonybruce19@test34.com</t>
+  </si>
+  <si>
+    <t>MSD19@test45.com</t>
+  </si>
+  <si>
+    <t>kholivirat27@puma18.com</t>
+  </si>
+  <si>
+    <t>yuvi1666@six6.com</t>
+  </si>
+  <si>
+    <t>tonybruce20@test34.com</t>
+  </si>
+  <si>
+    <t>MSD20@test45.com</t>
+  </si>
+  <si>
+    <t>kholivirat28@puma18.com</t>
+  </si>
+  <si>
+    <t>yuvi16666@six6.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -455,12 +537,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -488,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -505,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -522,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -533,13 +615,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -561,12 +643,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1EA69D-201F-4042-BBCD-C7CE1735C7A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>